--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C337A8F2-D722-4345-BD8D-E264DFA3E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A7618-7DD4-4F83-B2D2-5EF33DD52CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,43 +25,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Siloed</t>
-  </si>
-  <si>
-    <t>(of a system, process, department, etc.) isolated from others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adversities </t>
-  </si>
-  <si>
-    <t>a difficult or unpleasant situation</t>
-  </si>
-  <si>
-    <t>prone</t>
-  </si>
-  <si>
-    <t>likely or liable to suffer from, do, or experience something unpleasant or regrettable, lying flat, especially face downwards.</t>
-  </si>
-  <si>
-    <t>Ubiquitous</t>
-  </si>
-  <si>
-    <t>present, appearing, or found everywhere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">articulate </t>
-  </si>
-  <si>
-    <t>having or showing the ability to speak fluently and coherently.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>Plunge</t>
+  </si>
+  <si>
+    <t>Varsity</t>
+  </si>
+  <si>
+    <t>relating to a university, विश्वविद्यालय</t>
+  </si>
+  <si>
+    <t>jump or dive quickly and energetically, डुबकी</t>
+  </si>
+  <si>
+    <t>Deterioration</t>
+  </si>
+  <si>
+    <t>the process of becoming progressively worse.</t>
+  </si>
+  <si>
+    <t>Mow</t>
+  </si>
+  <si>
+    <t>Cut down(grass) with machine</t>
+  </si>
+  <si>
+    <t>catastrophic</t>
+  </si>
+  <si>
+    <t>involving or causing sudden great damage or suffering.</t>
+  </si>
+  <si>
+    <t>ransom</t>
+  </si>
+  <si>
+    <t>a sum of money demanded or paid for the release of a captive.</t>
+  </si>
+  <si>
+    <t>captive</t>
+  </si>
+  <si>
+    <t>a person who has been taken prisoner or an animal that has been confined.</t>
+  </si>
+  <si>
+    <t>confined</t>
+  </si>
+  <si>
+    <t>(of a space) restricted in area or volume</t>
+  </si>
+  <si>
+    <t>eavesdrop</t>
+  </si>
+  <si>
+    <t>secretly listen to a conversation.</t>
+  </si>
+  <si>
+    <t>intrude</t>
+  </si>
+  <si>
+    <t>put oneself deliberately into a place or situation where one is unwelcome or uninvited.</t>
+  </si>
+  <si>
+    <t>make a physical attack on.</t>
+  </si>
+  <si>
+    <t>assault</t>
+  </si>
+  <si>
+    <t>gulity</t>
+  </si>
+  <si>
+    <t>अपराधी</t>
+  </si>
+  <si>
+    <t>prolonged</t>
+  </si>
+  <si>
+    <t>lengthy</t>
+  </si>
+  <si>
+    <t>consolidation</t>
+  </si>
+  <si>
+    <t>the action or process of combining a number of things into a single more effective or coherent whole.</t>
+  </si>
+  <si>
+    <t>furtive</t>
+  </si>
+  <si>
+    <t>attempting to avoid notice or attention, typically because of guilt or a belief that discovery would lead to trouble; secretive.</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>move or go in a furtive or stealthy way.</t>
+  </si>
+  <si>
+    <t>snoop</t>
+  </si>
+  <si>
+    <t>investigate or look around furtively in an attempt to find out something, especially information about someone's private affairs.</t>
+  </si>
+  <si>
+    <t>peculiar</t>
+  </si>
+  <si>
+    <t>different to what is normal or expected; strange.</t>
+  </si>
+  <si>
+    <t>ravel</t>
+  </si>
+  <si>
+    <t>opposite- tangle, unravel</t>
+  </si>
+  <si>
+    <t>untangle, entangle</t>
+  </si>
+  <si>
+    <t>stiletto</t>
+  </si>
+  <si>
+    <t>high heels</t>
+  </si>
+  <si>
+    <t>tranquility</t>
+  </si>
+  <si>
+    <t>calm, शांति</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,24 +170,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF2A3B4F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -113,18 +200,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,57 +493,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="113.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="111.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>procession</t>
   </si>
@@ -30,18 +30,30 @@
     <t xml:space="preserve">a party celebrating a move to a new home.
 </t>
   </si>
+  <si>
+    <t>extravagant</t>
+  </si>
+  <si>
+    <t>spending too much money, or using too much of something</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>undertake a risky or daring journey or course of action.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,37 +77,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,16 +114,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,9 +145,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,12 +154,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,6 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -164,15 +199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,28 +209,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,49 +221,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,115 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,41 +430,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -507,162 +497,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1015,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.2" style="1" customWidth="1"/>
     <col min="2" max="2" width="81.3" style="1" customWidth="1"/>
@@ -1029,19 +1031,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
